--- a/ItemCrafting/Tools Overview.xlsx
+++ b/ItemCrafting/Tools Overview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\ItemCrafting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\ItemCrafting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5331A6-7B8E-44BE-9A62-2E868E51CCF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C883BC-EE23-4AE3-9E5E-5D52BEED9427}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{C6E93694-8309-4E8D-A9C0-FE4C46DA99F6}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="51">
   <si>
     <t>Alchemist Supplies</t>
   </si>
@@ -126,9 +120,6 @@
     <t>Consumable Recipes</t>
   </si>
   <si>
-    <t>Incomplete*</t>
-  </si>
-  <si>
     <t>Will probably have healing potions</t>
   </si>
   <si>
@@ -138,9 +129,6 @@
     <t>Non-Consumable Custom Crafting</t>
   </si>
   <si>
-    <t>Partially Complete</t>
-  </si>
-  <si>
     <t>Consumable Custom Crafting</t>
   </si>
   <si>
@@ -432,9 +420,6 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>Incomplete (Other types of Metal Crafting)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Will probably focus on </t>
     </r>
@@ -449,6 +434,9 @@
       </rPr>
       <t>Social Interaction</t>
     </r>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -547,41 +535,110 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -894,565 +951,578 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L13" sqref="L13"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" customWidth="1"/>
-    <col min="18" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" customWidth="1"/>
-    <col min="21" max="22" width="15.85546875" customWidth="1"/>
-    <col min="23" max="23" width="13.85546875" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="15" style="7" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="7" customWidth="1"/>
+    <col min="18" max="19" width="16" style="7" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" style="7" customWidth="1"/>
+    <col min="21" max="22" width="15.85546875" style="7" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" style="7" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="7" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" style="7" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="7" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="7" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="10" t="s">
+      <c r="K2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA2" s="8" t="s">
+      <c r="X2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3" s="10" t="s">
+      <c r="N3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA3" s="8" t="s">
+      <c r="X3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA3" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="G4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>35</v>
+      <c r="K4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA5" s="1" t="s">
+      <c r="K5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="N6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="S6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="U6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="2" t="s">
+      <c r="X6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>29</v>
+      <c r="AA6" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Incomplete">
+      <formula>NOT(ISERROR(SEARCH("Incomplete",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>